--- a/ig/ch-term/ValueSet-UnitCode.xlsx
+++ b/ig/ch-term/ValueSet-UnitCode.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from UCUM" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -31,13 +31,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>OID:2.16.756.5.30.1.1.11.83 (use: official)</t>
+    <t>OID:2.16.756.5.30.1.1.11.83 (use: official, )</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,7 +79,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-term/ValueSet-UnitCode.xlsx
+++ b/ig/ch-term/ValueSet-UnitCode.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T13:29:11+00:00</t>
+    <t>2025-05-21T19:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,7 +79,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-term/ValueSet-UnitCode.xlsx
+++ b/ig/ch-term/ValueSet-UnitCode.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T19:27:50+00:00</t>
+    <t>2025-12-15T10:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
